--- a/CLU_TABLE.xlsx
+++ b/CLU_TABLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>ALUFN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>0 | 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,11 +586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,8 +1055,8 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
+      <c r="N10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>43</v>
@@ -1092,8 +1100,8 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>43</v>
@@ -1184,8 +1192,8 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>43</v>
@@ -1229,8 +1237,8 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -1321,8 +1329,8 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
+      <c r="N16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>44</v>
@@ -1366,8 +1374,8 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
+      <c r="N17" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>44</v>
